--- a/database/Data Set.xlsx
+++ b/database/Data Set.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeonuKim\Desktop\ML project\Regression_Analysis_of_PECVD_SiNx\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B49907-D211-487C-A9F1-DFE30EEA8F9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A2AC28-3907-4BF8-B389-288E7DA8F856}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shuffled_Rand_removed" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
-    <sheet name="Shuffled" sheetId="1" r:id="rId3"/>
-    <sheet name="Raw Data" sheetId="3" r:id="rId4"/>
+    <sheet name="Shuffled" sheetId="1" r:id="rId2"/>
+    <sheet name="Raw Data" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Shuffled!$A$2:$H$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Shuffled!$A$2:$H$44</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
   <si>
     <t>RF Freq (MHz)</t>
   </si>
@@ -119,20 +119,32 @@
     <t>Tensile Stress calculated by Linear Regression Model (MPa)</t>
   </si>
   <si>
-    <t>Tensile Stress calculated by Neural Network Model (MPa)</t>
-  </si>
-  <si>
     <t>Linear Regression</t>
   </si>
   <si>
     <t>Linear Regression Weights and bias selected.</t>
+  </si>
+  <si>
+    <t>NonLinear Regression</t>
+  </si>
+  <si>
+    <t>W3_sub</t>
+  </si>
+  <si>
+    <t>W3_sup</t>
+  </si>
+  <si>
+    <t>Tensile Stress calculated by Non-Linear Regression Model (MPa)</t>
+  </si>
+  <si>
+    <t>Test8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,25 +153,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="12">
@@ -284,10 +309,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -299,19 +326,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="2" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="20% - 강조색3" xfId="1" builtinId="38"/>
+    <cellStyle name="40% - 강조색3" xfId="2" builtinId="39"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -775,6 +814,189 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-FC3B-42D9-A3E9-982976372F37}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Shuffled_Rand_removed!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tensile Stress calculated by Non-Linear Regression Model (MPa)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Shuffled_Rand_removed!$K$2:$K$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>55.10981035054197</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51.289295883643263</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.568639216498021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.371137462032934</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.48237172770844</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47.466065196122784</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>97.344765061859135</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44.564865513121759</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>101.50472656745481</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36.052845410103288</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26.90023437666553</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>93.299464271621758</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>108.59657980308657</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>81.680737501641062</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>31.615796932290266</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>77.88349952712565</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>96.892802060896713</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50.427378791785856</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41.593078215464843</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39.833568438870159</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>31.855690551947472</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>47.657157048112772</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>55.037381784403969</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>85.657635905994766</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19.608886172802514</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>70.133611997180452</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>66.502312506020488</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>19.701521057521667</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>116.9246582416248</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41.730834570289524</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>112.61596583934275</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>82.172845830903952</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>36.699748738575934</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>51.462780421495161</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>47.173116763342875</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20.751921626151525</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>35.886818700038546</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.6947532789087134</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>66.760689338894807</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42.484389824394569</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>25.601687325219146</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>62.795996559631867</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>29.87562905412376</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ED73-4049-A5ED-EC938888BBC8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1041,8 +1263,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.33742341589223046"/>
           <c:y val="0.10744529040200125"/>
-          <c:w val="0.6401519928851892"/>
-          <c:h val="0.21516186428700573"/>
+          <c:w val="0.53467889959367154"/>
+          <c:h val="0.14130931529438706"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1118,7 +1340,420 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.184320202219915E-2"/>
+                  <c:y val="-0.25641987459900845"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$20:$I$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>39.669250334268199</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.796463290808298</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50.0411175116365</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59.812206572769902</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90.009751585889305</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120.20428064460999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$20:$J$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>317.68388106416199</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76.134585289514902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62.9890453834116</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44.913928012519499</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.7683881064162</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.8388106416275</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1341-4206-8E74-BB165A585121}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="488777064"/>
+        <c:axId val="488774112"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="488777064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="488774112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="488774112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="488777064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1661,6 +2296,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1682,6 +2833,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34D776FA-57ED-4848-98E9-E75CC128525C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7F7CB18-C967-4E02-AC40-3AFF6007FFBF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1965,19 +3157,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3186E75-438A-4A95-88D4-48D169AD77DA}">
-  <dimension ref="A1:K62"/>
+  <dimension ref="A1:N89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R53" sqref="R53"/>
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="7" width="9.140625" customWidth="1"/>
     <col min="9" max="10" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2006,10 +3199,10 @@
         <v>25</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="5">
         <v>13.56</v>
       </c>
@@ -2038,8 +3231,12 @@
         <f>(C2/600*C$48+D2/900*D$48+E2/120*E$48+F2/75*F$48+G2/1500*G$48+H$48)*100</f>
         <v>25.335879515816284</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <f>(C2/600*E$62+D2/900*F$62+G$62*EXP(H$62*E2/120)+F2/75*I$62+G2/1500*J$62+K$62)</f>
+        <v>55.10981035054197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="5">
         <v>13.56</v>
       </c>
@@ -2068,8 +3265,12 @@
         <f t="shared" ref="J3:J44" si="0">(C3/600*C$48+D3/900*D$48+E3/120*E$48+F3/75*F$48+G3/1500*G$48+H$48)*100</f>
         <v>56.256917717115364</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <f t="shared" ref="K3:K44" si="1">(C3/600*E$62+D3/900*F$62+G$62*EXP(H$62*E3/120)+F3/75*I$62+G3/1500*J$62+K$62)</f>
+        <v>51.289295883643263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="5">
         <v>13.56</v>
       </c>
@@ -2098,8 +3299,12 @@
         <f t="shared" si="0"/>
         <v>29.422206038490646</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>13.568639216498021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="5">
         <v>13.56</v>
       </c>
@@ -2128,8 +3333,12 @@
         <f t="shared" si="0"/>
         <v>42.123609435115483</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>34.371137462032934</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="5">
         <v>13.56</v>
       </c>
@@ -2158,8 +3367,12 @@
         <f t="shared" si="0"/>
         <v>54.98220321438675</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>33.48237172770844</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="5">
         <v>13.56</v>
       </c>
@@ -2188,8 +3401,12 @@
         <f t="shared" si="0"/>
         <v>107.15497786073334</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>47.466065196122784</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="5">
         <v>13.56</v>
       </c>
@@ -2218,8 +3435,12 @@
         <f t="shared" si="0"/>
         <v>74.682625801814837</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>97.344765061859135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="5">
         <v>13.56</v>
       </c>
@@ -2248,8 +3469,12 @@
         <f t="shared" si="0"/>
         <v>75.653897239313395</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>44.564865513121759</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="5">
         <v>13.56</v>
       </c>
@@ -2278,8 +3503,12 @@
         <f t="shared" si="0"/>
         <v>78.076330045471522</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>101.50472656745481</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="5">
         <v>13.56</v>
       </c>
@@ -2308,8 +3537,12 @@
         <f t="shared" si="0"/>
         <v>46.649246264929168</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>36.052845410103288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="5">
         <v>13.56</v>
       </c>
@@ -2338,8 +3571,12 @@
         <f t="shared" si="0"/>
         <v>40.756226601091583</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>26.90023437666553</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="5">
         <v>13.56</v>
       </c>
@@ -2368,8 +3605,12 @@
         <f t="shared" si="0"/>
         <v>88.94313523903476</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>93.299464271621758</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="5">
         <v>13.56</v>
       </c>
@@ -2398,8 +3639,12 @@
         <f t="shared" si="0"/>
         <v>95.939650406933509</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>108.59657980308657</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="5">
         <v>13.56</v>
       </c>
@@ -2428,8 +3673,12 @@
         <f t="shared" si="0"/>
         <v>70.157197270947663</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>81.680737501641062</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="5">
         <v>13.56</v>
       </c>
@@ -2458,8 +3707,12 @@
         <f t="shared" si="0"/>
         <v>59.194295658608617</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>31.615796932290266</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="5">
         <v>13.56</v>
       </c>
@@ -2488,8 +3741,12 @@
         <f t="shared" si="0"/>
         <v>81.892261436009321</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>77.88349952712565</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="5">
         <v>13.56</v>
       </c>
@@ -2518,8 +3775,12 @@
         <f t="shared" si="0"/>
         <v>77.114812267380643</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>96.892802060896713</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="5">
         <v>13.56</v>
       </c>
@@ -2548,8 +3809,12 @@
         <f t="shared" si="0"/>
         <v>28.944292903909297</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>50.427378791785856</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="5">
         <v>13.56</v>
       </c>
@@ -2578,8 +3843,12 @@
         <f t="shared" si="0"/>
         <v>43.386379838936847</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>41.593078215464843</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="5">
         <v>13.56</v>
       </c>
@@ -2608,8 +3877,12 @@
         <f t="shared" si="0"/>
         <v>49.869496385818366</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>39.833568438870159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="5">
         <v>13.56</v>
       </c>
@@ -2638,8 +3911,12 @@
         <f t="shared" si="0"/>
         <v>60.840301478095384</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>31.855690551947472</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="5">
         <v>13.56</v>
       </c>
@@ -2668,8 +3945,12 @@
         <f t="shared" si="0"/>
         <v>31.444037441417738</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>47.657157048112772</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="5">
         <v>13.56</v>
       </c>
@@ -2698,8 +3979,12 @@
         <f t="shared" si="0"/>
         <v>56.82333748501955</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>55.037381784403969</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="5">
         <v>13.56</v>
       </c>
@@ -2728,8 +4013,12 @@
         <f t="shared" si="0"/>
         <v>70.8282701120865</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>85.657635905994766</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="5">
         <v>13.56</v>
       </c>
@@ -2758,8 +4047,12 @@
         <f t="shared" si="0"/>
         <v>39.421707299083664</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26">
+        <f>(C26/600*E$62+D26/900*F$62+G$62*EXP(H$62*E26/120)+F26/75*I$62+G26/1500*J$62+K$62)</f>
+        <v>19.608886172802514</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="5">
         <v>13.56</v>
       </c>
@@ -2788,8 +4081,12 @@
         <f t="shared" si="0"/>
         <v>63.727972770314302</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>70.133611997180452</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="5">
         <v>13.56</v>
       </c>
@@ -2818,8 +4115,12 @@
         <f t="shared" si="0"/>
         <v>63.214968163228846</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>66.502312506020488</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="5">
         <v>13.56</v>
       </c>
@@ -2848,8 +4149,12 @@
         <f t="shared" si="0"/>
         <v>39.539517067516314</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>19.701521057521667</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="5">
         <v>13.56</v>
       </c>
@@ -2878,8 +4183,12 @@
         <f t="shared" si="0"/>
         <v>85.129018222166096</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30">
+        <f t="shared" si="1"/>
+        <v>116.9246582416248</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="5">
         <v>13.56</v>
       </c>
@@ -2908,8 +4217,12 @@
         <f t="shared" si="0"/>
         <v>43.470638485613534</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>41.730834570289524</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="5">
         <v>13.56</v>
       </c>
@@ -2938,8 +4251,12 @@
         <f t="shared" si="0"/>
         <v>84.306191167342419</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>112.61596583934275</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="5">
         <v>13.56</v>
       </c>
@@ -2968,8 +4285,12 @@
         <f t="shared" si="0"/>
         <v>67.743372266913411</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33">
+        <f t="shared" si="1"/>
+        <v>82.172845830903952</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="5">
         <v>13.56</v>
       </c>
@@ -2998,8 +4319,12 @@
         <f t="shared" si="0"/>
         <v>-9.7451461507527917</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K34">
+        <f t="shared" si="1"/>
+        <v>36.699748738575934</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="5">
         <v>13.56</v>
       </c>
@@ -3028,8 +4353,12 @@
         <f t="shared" si="0"/>
         <v>53.697362219977698</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35">
+        <f t="shared" si="1"/>
+        <v>51.462780421495161</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="5">
         <v>13.56</v>
       </c>
@@ -3058,8 +4387,12 @@
         <f t="shared" si="0"/>
         <v>67.846106239180017</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36">
+        <f t="shared" si="1"/>
+        <v>47.173116763342875</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="5">
         <v>13.56</v>
       </c>
@@ -3088,8 +4421,12 @@
         <f t="shared" si="0"/>
         <v>39.650989298308104</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K37">
+        <f t="shared" si="1"/>
+        <v>20.751921626151525</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="5">
         <v>13.56</v>
       </c>
@@ -3118,8 +4455,12 @@
         <f t="shared" si="0"/>
         <v>49.212212784564869</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K38">
+        <f t="shared" si="1"/>
+        <v>35.886818700038546</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="5">
         <v>13.56</v>
       </c>
@@ -3148,8 +4489,12 @@
         <f t="shared" si="0"/>
         <v>19.732156153281789</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K39">
+        <f t="shared" si="1"/>
+        <v>7.6947532789087134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="5">
         <v>13.56</v>
       </c>
@@ -3178,8 +4523,12 @@
         <f t="shared" si="0"/>
         <v>60.694240262610258</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K40">
+        <f t="shared" si="1"/>
+        <v>66.760689338894807</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="5">
         <v>13.56</v>
       </c>
@@ -3208,8 +4557,12 @@
         <f t="shared" si="0"/>
         <v>37.198387556963986</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K41">
+        <f t="shared" si="1"/>
+        <v>42.484389824394569</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="5">
         <v>13.56</v>
       </c>
@@ -3238,8 +4591,12 @@
         <f t="shared" si="0"/>
         <v>49.272921167031306</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K42">
+        <f t="shared" si="1"/>
+        <v>25.601687325219146</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="5">
         <v>13.56</v>
       </c>
@@ -3268,8 +4625,12 @@
         <f t="shared" si="0"/>
         <v>74.99161777278664</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K43">
+        <f t="shared" si="1"/>
+        <v>62.795996559631867</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="5">
         <v>13.56</v>
       </c>
@@ -3298,377 +4659,643 @@
         <f t="shared" si="0"/>
         <v>72.764242728184755</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C46" s="11" t="s">
+      <c r="K44">
+        <f t="shared" si="1"/>
+        <v>29.87562905412376</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="46" spans="1:12">
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+    </row>
+    <row r="48" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="19">
+        <v>-0.42115760000000002</v>
+      </c>
+      <c r="D48" s="20">
+        <v>0.88661129999999999</v>
+      </c>
+      <c r="E48" s="20">
+        <v>0.70669912999999995</v>
+      </c>
+      <c r="F48" s="20">
+        <v>-1.5938870999999999</v>
+      </c>
+      <c r="G48" s="20">
+        <v>5.7433735999999999E-2</v>
+      </c>
+      <c r="H48" s="21">
+        <v>0.7719625</v>
+      </c>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+    </row>
+    <row r="49" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="12"/>
+      <c r="B50" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I50" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J50" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K50" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L50" s="12"/>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="12"/>
+      <c r="B51" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="17">
+        <v>0.01</v>
+      </c>
+      <c r="D51" s="17">
+        <v>1000</v>
+      </c>
+      <c r="E51" s="17">
+        <v>-0.65167200000000003</v>
+      </c>
+      <c r="F51" s="17">
+        <v>0.47120236999999998</v>
+      </c>
+      <c r="G51" s="17">
+        <v>1.0351330000000001</v>
+      </c>
+      <c r="H51" s="17">
+        <v>-0.28741503000000002</v>
+      </c>
+      <c r="I51" s="17">
+        <v>3.2404993E-2</v>
+      </c>
+      <c r="J51" s="17">
+        <v>-3.9155196000000003E-2</v>
+      </c>
+      <c r="K51" s="18">
+        <v>1.4353737E-3</v>
+      </c>
+      <c r="L51" s="12"/>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="12"/>
+      <c r="B52" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="17">
+        <v>0.02</v>
+      </c>
+      <c r="D52" s="17">
+        <v>1000</v>
+      </c>
+      <c r="E52" s="17">
+        <v>-0.71097310000000002</v>
+      </c>
+      <c r="F52" s="17">
+        <v>0.55529729999999999</v>
+      </c>
+      <c r="G52" s="17">
+        <v>-0.55300459999999996</v>
+      </c>
+      <c r="H52" s="17">
+        <v>-0.48563220000000001</v>
+      </c>
+      <c r="I52" s="17">
+        <v>0.52876409999999996</v>
+      </c>
+      <c r="J52" s="17">
+        <v>0.91065090000000004</v>
+      </c>
+      <c r="K52" s="22">
+        <v>6.1774140000000005E-5</v>
+      </c>
+      <c r="L52" s="12"/>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="12"/>
+      <c r="B53" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="D53" s="17">
+        <v>1000</v>
+      </c>
+      <c r="E53" s="17">
+        <v>-0.79915939999999996</v>
+      </c>
+      <c r="F53" s="17">
+        <v>1.4133694999999999</v>
+      </c>
+      <c r="G53" s="17">
+        <v>-1.1191911999999999</v>
+      </c>
+      <c r="H53" s="17">
+        <v>-0.44483644</v>
+      </c>
+      <c r="I53" s="17">
+        <v>0.14675157999999999</v>
+      </c>
+      <c r="J53" s="17">
+        <v>0.94439465</v>
+      </c>
+      <c r="K53" s="22">
+        <v>1.8613211E-5</v>
+      </c>
+      <c r="L53" s="12"/>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="12"/>
+      <c r="B54" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="D54" s="17">
+        <v>2000</v>
+      </c>
+      <c r="E54" s="17">
+        <v>-0.88814070000000001</v>
+      </c>
+      <c r="F54" s="17">
+        <v>2.6714603999999999E-2</v>
+      </c>
+      <c r="G54" s="17">
+        <v>-1.7405679000000001</v>
+      </c>
+      <c r="H54" s="17">
+        <v>1.0310147999999999</v>
+      </c>
+      <c r="I54" s="17">
+        <v>0.33646124999999999</v>
+      </c>
+      <c r="J54" s="17">
+        <v>1.4127383</v>
+      </c>
+      <c r="K54" s="18">
+        <v>1.0419489999999999E-3</v>
+      </c>
+      <c r="L54" s="12"/>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="12"/>
+      <c r="B55" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" s="17">
+        <v>0.02</v>
+      </c>
+      <c r="D55" s="17">
+        <v>2000</v>
+      </c>
+      <c r="E55" s="17">
+        <v>-0.78193146000000002</v>
+      </c>
+      <c r="F55" s="17">
+        <v>0.65261126000000003</v>
+      </c>
+      <c r="G55" s="17">
+        <v>-0.20762059999999999</v>
+      </c>
+      <c r="H55" s="17">
+        <v>-1.1790503999999999</v>
+      </c>
+      <c r="I55" s="17">
+        <v>0.11030212</v>
+      </c>
+      <c r="J55" s="17">
+        <v>1.626352</v>
+      </c>
+      <c r="K55" s="18">
+        <v>4.0975088000000002E-4</v>
+      </c>
+      <c r="L55" s="12"/>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="12"/>
+      <c r="B56" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" s="17">
+        <v>0.01</v>
+      </c>
+      <c r="D56" s="17">
+        <v>2000</v>
+      </c>
+      <c r="E56" s="17">
+        <v>-0.42115760000000002</v>
+      </c>
+      <c r="F56" s="17">
+        <v>0.88661129999999999</v>
+      </c>
+      <c r="G56" s="17">
+        <v>0.70669912999999995</v>
+      </c>
+      <c r="H56" s="17">
+        <v>-1.5938870999999999</v>
+      </c>
+      <c r="I56" s="17">
+        <v>5.7433735999999999E-2</v>
+      </c>
+      <c r="J56" s="17">
+        <v>0.7719625</v>
+      </c>
+      <c r="K56" s="18">
+        <v>2.4523672000000001E-3</v>
+      </c>
+      <c r="L56" s="12"/>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="12"/>
+      <c r="B57" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" s="17">
+        <v>0.01</v>
+      </c>
+      <c r="D57" s="17">
+        <v>500</v>
+      </c>
+      <c r="E57" s="17">
+        <v>-0.18867797</v>
+      </c>
+      <c r="F57" s="17">
+        <v>0.34092270000000002</v>
+      </c>
+      <c r="G57" s="17">
+        <v>-2.4080788999999998E-2</v>
+      </c>
+      <c r="H57" s="17">
+        <v>-4.9263775000000003E-2</v>
+      </c>
+      <c r="I57" s="17">
+        <v>-7.6906150000000006E-2</v>
+      </c>
+      <c r="J57" s="17">
+        <v>0.51009004999999996</v>
+      </c>
+      <c r="K57" s="18">
+        <v>7.4721075000000004E-4</v>
+      </c>
+      <c r="L57" s="12"/>
+    </row>
+    <row r="58" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A58" s="12"/>
+      <c r="B58" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C58" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="D58" s="20">
+        <v>700</v>
+      </c>
+      <c r="E58" s="20">
+        <v>-0.68996900000000005</v>
+      </c>
+      <c r="F58" s="20">
+        <v>0.4284752</v>
+      </c>
+      <c r="G58" s="20">
+        <v>-0.32434273000000002</v>
+      </c>
+      <c r="H58" s="20">
+        <v>-0.91882520000000001</v>
+      </c>
+      <c r="I58" s="20">
+        <v>0.39231675999999999</v>
+      </c>
+      <c r="J58" s="20">
+        <v>1.3515518</v>
+      </c>
+      <c r="K58" s="21">
+        <v>2.7583803999999999E-4</v>
+      </c>
+      <c r="L58" s="12"/>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="12"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="17"/>
+      <c r="L59" s="12"/>
+    </row>
+    <row r="60" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A60" s="23"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="24"/>
+      <c r="J60" s="24"/>
+      <c r="K60" s="24"/>
+      <c r="L60" s="23"/>
+      <c r="M60" s="23"/>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="23"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="13"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C47" s="14" t="s">
+      <c r="E61" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="F61" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="5" t="s">
+      <c r="G61" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="H61" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="I61" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="J61" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H47" s="15" t="s">
+      <c r="K61" s="27" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="17">
-        <v>-0.42115760000000002</v>
-      </c>
-      <c r="D48" s="18">
-        <v>0.88661129999999999</v>
-      </c>
-      <c r="E48" s="18">
-        <v>0.70669912999999995</v>
-      </c>
-      <c r="F48" s="18">
-        <v>-1.5938870999999999</v>
-      </c>
-      <c r="G48" s="18">
-        <v>5.7433735999999999E-2</v>
-      </c>
-      <c r="H48" s="19">
-        <v>0.7719625</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B50" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C50" s="12" t="s">
+      <c r="L61" s="24"/>
+      <c r="M61" s="23"/>
+    </row>
+    <row r="62" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A62" s="23"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="29">
+        <v>-92.081505000000007</v>
+      </c>
+      <c r="F62" s="29">
+        <v>53.744343000000001</v>
+      </c>
+      <c r="G62" s="29">
+        <v>91.920720000000003</v>
+      </c>
+      <c r="H62" s="29">
+        <v>-3.6343987000000002</v>
+      </c>
+      <c r="I62" s="29">
+        <v>-14.679448000000001</v>
+      </c>
+      <c r="J62" s="29">
+        <v>31.379791000000001</v>
+      </c>
+      <c r="K62" s="30">
+        <v>46.164836999999999</v>
+      </c>
+      <c r="L62" s="24"/>
+      <c r="M62" s="23"/>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="23"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="24"/>
+      <c r="I63" s="24"/>
+      <c r="J63" s="24"/>
+      <c r="K63" s="24"/>
+      <c r="L63" s="24"/>
+      <c r="M63" s="23"/>
+    </row>
+    <row r="64" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A64" s="23"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="23"/>
+      <c r="J64" s="23"/>
+      <c r="K64" s="23"/>
+      <c r="L64" s="23"/>
+      <c r="M64" s="23"/>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="23"/>
+      <c r="B65" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D65" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="E50" s="12" t="s">
+      <c r="E65" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F50" s="12" t="s">
+      <c r="F65" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G50" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H50" s="12" t="s">
+      <c r="G65" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="H65" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="I65" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="I50" s="12" t="s">
+      <c r="J65" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="J50" s="12" t="s">
+      <c r="K65" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="K50" s="13" t="s">
+      <c r="L65" s="27" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B51" s="14" t="s">
+      <c r="M65" s="23"/>
+    </row>
+    <row r="66" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A66" s="23"/>
+      <c r="B66" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="D51" s="5">
+      <c r="C66" s="29">
+        <v>0.02</v>
+      </c>
+      <c r="D66" s="29">
         <v>1000</v>
       </c>
-      <c r="E51" s="5">
-        <v>-0.65167200000000003</v>
-      </c>
-      <c r="F51" s="5">
-        <v>0.47120236999999998</v>
-      </c>
-      <c r="G51" s="5">
-        <v>1.0351330000000001</v>
-      </c>
-      <c r="H51" s="5">
-        <v>-0.28741503000000002</v>
-      </c>
-      <c r="I51" s="5">
-        <v>3.2404993E-2</v>
-      </c>
-      <c r="J51" s="5">
-        <v>-3.9155196000000003E-2</v>
-      </c>
-      <c r="K51" s="15">
-        <v>1.4353737E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B52" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C52" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="D52" s="5">
-        <v>1000</v>
-      </c>
-      <c r="E52" s="5">
-        <v>-0.71097310000000002</v>
-      </c>
-      <c r="F52" s="5">
-        <v>0.55529729999999999</v>
-      </c>
-      <c r="G52" s="5">
-        <v>-0.55300459999999996</v>
-      </c>
-      <c r="H52" s="5">
-        <v>-0.48563220000000001</v>
-      </c>
-      <c r="I52" s="5">
-        <v>0.52876409999999996</v>
-      </c>
-      <c r="J52" s="5">
-        <v>0.91065090000000004</v>
-      </c>
-      <c r="K52" s="16">
-        <v>6.1774140000000005E-5</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B53" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C53" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="D53" s="5">
-        <v>1000</v>
-      </c>
-      <c r="E53" s="5">
-        <v>-0.79915939999999996</v>
-      </c>
-      <c r="F53" s="5">
-        <v>1.4133694999999999</v>
-      </c>
-      <c r="G53" s="5">
-        <v>-1.1191911999999999</v>
-      </c>
-      <c r="H53" s="5">
-        <v>-0.44483644</v>
-      </c>
-      <c r="I53" s="5">
-        <v>0.14675157999999999</v>
-      </c>
-      <c r="J53" s="5">
-        <v>0.94439465</v>
-      </c>
-      <c r="K53" s="16">
-        <v>1.8613211E-5</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B54" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C54" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="D54" s="5">
-        <v>2000</v>
-      </c>
-      <c r="E54" s="5">
-        <v>-0.88814070000000001</v>
-      </c>
-      <c r="F54" s="5">
-        <v>2.6714603999999999E-2</v>
-      </c>
-      <c r="G54" s="5">
-        <v>-1.7405679000000001</v>
-      </c>
-      <c r="H54" s="5">
-        <v>1.0310147999999999</v>
-      </c>
-      <c r="I54" s="5">
-        <v>0.33646124999999999</v>
-      </c>
-      <c r="J54" s="5">
-        <v>1.4127383</v>
-      </c>
-      <c r="K54" s="15">
-        <v>1.0419489999999999E-3</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B55" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C55" s="7">
-        <v>0.02</v>
-      </c>
-      <c r="D55" s="7">
-        <v>2000</v>
-      </c>
-      <c r="E55" s="5">
-        <v>-0.78193146000000002</v>
-      </c>
-      <c r="F55" s="5">
-        <v>0.65261126000000003</v>
-      </c>
-      <c r="G55" s="5">
-        <v>-0.20762059999999999</v>
-      </c>
-      <c r="H55" s="5">
-        <v>-1.1790503999999999</v>
-      </c>
-      <c r="I55" s="5">
-        <v>0.11030212</v>
-      </c>
-      <c r="J55" s="5">
-        <v>1.626352</v>
-      </c>
-      <c r="K55" s="15">
-        <v>4.0975088000000002E-4</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B56" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C56" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="D56" s="7">
-        <v>2000</v>
-      </c>
-      <c r="E56" s="21">
-        <v>-0.42115760000000002</v>
-      </c>
-      <c r="F56" s="21">
-        <v>0.88661129999999999</v>
-      </c>
-      <c r="G56" s="21">
-        <v>0.70669912999999995</v>
-      </c>
-      <c r="H56" s="21">
-        <v>-1.5938870999999999</v>
-      </c>
-      <c r="I56" s="21">
-        <v>5.7433735999999999E-2</v>
-      </c>
-      <c r="J56" s="21">
-        <v>0.7719625</v>
-      </c>
-      <c r="K56" s="15">
-        <v>2.4523672000000001E-3</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C57" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="D57" s="20">
-        <v>500</v>
-      </c>
-      <c r="E57" s="18">
-        <v>-0.18867797</v>
-      </c>
-      <c r="F57" s="18">
-        <v>0.34092270000000002</v>
-      </c>
-      <c r="G57" s="18">
-        <v>-2.4080788999999998E-2</v>
-      </c>
-      <c r="H57" s="18">
-        <v>-4.9263775000000003E-2</v>
-      </c>
-      <c r="I57" s="18">
-        <v>-7.6906150000000006E-2</v>
-      </c>
-      <c r="J57" s="18">
-        <v>0.51009004999999996</v>
-      </c>
-      <c r="K57" s="19">
-        <v>7.4721075000000004E-4</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
+      <c r="E66" s="29">
+        <v>-0.53864449999999997</v>
+      </c>
+      <c r="F66" s="29">
+        <v>0.70868754</v>
+      </c>
+      <c r="G66" s="29">
+        <v>-0.35300544</v>
+      </c>
+      <c r="H66" s="29">
+        <v>1.010281</v>
+      </c>
+      <c r="I66" s="29">
+        <v>-0.21016758999999999</v>
+      </c>
+      <c r="J66" s="29">
+        <v>0.74267625999999998</v>
+      </c>
+      <c r="K66" s="29">
+        <v>0.52707899999999996</v>
+      </c>
+      <c r="L66" s="31">
+        <v>1.1989717E-5</v>
+      </c>
+      <c r="M66" s="23"/>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="23"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="23"/>
+      <c r="I67" s="23"/>
+      <c r="J67" s="23"/>
+      <c r="K67" s="23"/>
+      <c r="L67" s="23"/>
+      <c r="M67" s="23"/>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="23"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="23"/>
+      <c r="I68" s="23"/>
+      <c r="J68" s="23"/>
+      <c r="K68" s="23"/>
+      <c r="L68" s="23"/>
+      <c r="M68" s="23"/>
+    </row>
+    <row r="84" spans="7:7">
+      <c r="G84" s="11"/>
+    </row>
+    <row r="85" spans="7:7">
+      <c r="G85" s="11"/>
+    </row>
+    <row r="86" spans="7:7">
+      <c r="G86" s="11"/>
+    </row>
+    <row r="87" spans="7:7">
+      <c r="G87" s="11"/>
+    </row>
+    <row r="88" spans="7:7">
+      <c r="G88" s="11"/>
+    </row>
+    <row r="89" spans="7:7">
+      <c r="G89" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -3676,18 +5303,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1029A5E-F980-4350-82BA-B29E6AC6D4B3}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I48"/>
   <sheetViews>
@@ -3695,7 +5310,7 @@
       <selection sqref="A1:H44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
@@ -3707,7 +5322,7 @@
     <col min="9" max="9" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3736,7 +5351,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="5">
         <v>13.56</v>
       </c>
@@ -3763,10 +5378,10 @@
       </c>
       <c r="I2">
         <f t="shared" ref="I2:I44" ca="1" si="0">RAND()</f>
-        <v>0.76869260377408999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.89505557558856685</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="5">
         <v>13.56</v>
       </c>
@@ -3793,10 +5408,10 @@
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28122837016840951</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.99379963344186595</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="5">
         <v>13.56</v>
       </c>
@@ -3823,10 +5438,10 @@
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22302551371276935</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.57398459937964075</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="5">
         <v>13.56</v>
       </c>
@@ -3853,10 +5468,10 @@
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99323638224213606</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3.9509420180148913E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="5">
         <v>13.56</v>
       </c>
@@ -3883,10 +5498,10 @@
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58292953941862069</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.9138743050539011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="5">
         <v>13.56</v>
       </c>
@@ -3913,10 +5528,10 @@
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36307250511318323</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>5.2272306917480527E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="5">
         <v>13.56</v>
       </c>
@@ -3943,10 +5558,10 @@
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4967418568267998E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.36260495396551284</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="5">
         <v>13.56</v>
       </c>
@@ -3973,10 +5588,10 @@
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48644756610470874</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.61985080757549416</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="5">
         <v>13.56</v>
       </c>
@@ -4003,10 +5618,10 @@
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
-        <v>5.4679236309821189E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.99754079409676266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="5">
         <v>13.56</v>
       </c>
@@ -4033,10 +5648,10 @@
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92069224518350623</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.23636484101018918</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="5">
         <v>13.56</v>
       </c>
@@ -4063,10 +5678,10 @@
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41307882878916036</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.6940650794354104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="5">
         <v>13.56</v>
       </c>
@@ -4093,10 +5708,10 @@
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69685710280210067</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.48563797079715765</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="5">
         <v>13.56</v>
       </c>
@@ -4123,10 +5738,10 @@
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74380456076228163</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4.0495436156319231E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="5">
         <v>13.56</v>
       </c>
@@ -4153,10 +5768,10 @@
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18477330015450233</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.48058795104553076</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="5">
         <v>13.56</v>
       </c>
@@ -4183,10 +5798,10 @@
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8186488507327937</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.66406632377026198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="5">
         <v>13.56</v>
       </c>
@@ -4213,10 +5828,10 @@
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27624940099631412</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.78317755328033101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="5">
         <v>13.56</v>
       </c>
@@ -4243,10 +5858,10 @@
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73342632238369909</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.63079172229764213</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="5">
         <v>13.56</v>
       </c>
@@ -4273,10 +5888,10 @@
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59257691219455244</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.90432510106041009</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="5">
         <v>13.56</v>
       </c>
@@ -4303,10 +5918,10 @@
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5113335216673689</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.22247853525180949</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="5">
         <v>13.56</v>
       </c>
@@ -4333,10 +5948,10 @@
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8062043690016979</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.11916436812811804</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="5">
         <v>13.56</v>
       </c>
@@ -4363,10 +5978,10 @@
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5261086804998214</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.46732913011211008</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="5">
         <v>13.56</v>
       </c>
@@ -4393,10 +6008,10 @@
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94767648721403375</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.13340637553044854</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="5">
         <v>13.56</v>
       </c>
@@ -4423,10 +6038,10 @@
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23521287386729306</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.80401381828301055</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="5">
         <v>13.56</v>
       </c>
@@ -4453,10 +6068,10 @@
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24013178247277422</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.49854326427040907</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="5">
         <v>13.56</v>
       </c>
@@ -4483,10 +6098,10 @@
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60000376022186697</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.80200078186321011</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="5">
         <v>13.56</v>
       </c>
@@ -4513,10 +6128,10 @@
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6349867823813623</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.13020736014403578</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="5">
         <v>13.56</v>
       </c>
@@ -4543,10 +6158,10 @@
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96818038481958291</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.88631873433535158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="5">
         <v>13.56</v>
       </c>
@@ -4573,10 +6188,10 @@
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85488546967776524</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.3905406447929638</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="5">
         <v>13.56</v>
       </c>
@@ -4603,10 +6218,10 @@
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30805144703011411</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.87115689378022121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="5">
         <v>13.56</v>
       </c>
@@ -4633,10 +6248,10 @@
       </c>
       <c r="I31">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60198783082687213</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.46555915408964421</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="5">
         <v>13.56</v>
       </c>
@@ -4663,10 +6278,10 @@
       </c>
       <c r="I32">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42065886967917165</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.70409275237056279</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="5">
         <v>13.56</v>
       </c>
@@ -4693,10 +6308,10 @@
       </c>
       <c r="I33">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86576957505410945</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.9302851015231739</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="5">
         <v>13.56</v>
       </c>
@@ -4723,10 +6338,10 @@
       </c>
       <c r="I34">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85030552623310574</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.57270513476540053</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="5">
         <v>13.56</v>
       </c>
@@ -4753,10 +6368,10 @@
       </c>
       <c r="I35">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93442463597183545</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.83612821865265519</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="5">
         <v>13.56</v>
       </c>
@@ -4783,10 +6398,10 @@
       </c>
       <c r="I36">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24874193299102687</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.21092517883950157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="5">
         <v>13.56</v>
       </c>
@@ -4813,10 +6428,10 @@
       </c>
       <c r="I37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88568367482935317</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.67151552095999012</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="5">
         <v>13.56</v>
       </c>
@@ -4843,10 +6458,10 @@
       </c>
       <c r="I38">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79689112624864178</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.36727615646691492</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="5">
         <v>13.56</v>
       </c>
@@ -4873,10 +6488,10 @@
       </c>
       <c r="I39">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97053187150174869</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.67640773450588521</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="5">
         <v>13.56</v>
       </c>
@@ -4903,10 +6518,10 @@
       </c>
       <c r="I40">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6524820279105773</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.64498914486587444</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="5">
         <v>13.56</v>
       </c>
@@ -4933,10 +6548,10 @@
       </c>
       <c r="I41">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8714796311052844E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.24427843649972802</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="5">
         <v>13.56</v>
       </c>
@@ -4963,10 +6578,10 @@
       </c>
       <c r="I42">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67701397047942147</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.5246753955855934</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="5">
         <v>13.56</v>
       </c>
@@ -4993,10 +6608,10 @@
       </c>
       <c r="I43">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49144984043636886</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.69566867126141707</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="5">
         <v>13.56</v>
       </c>
@@ -5023,10 +6638,10 @@
       </c>
       <c r="I44">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48082383460233746</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>0.39010825028802976</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="9" customHeight="1"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I48">
     <sortCondition ref="I2:I48"/>
@@ -5036,15 +6651,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D992B10E-F2AA-4B52-B0B6-59356A8D6A90}">
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="H31" sqref="H31:H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
@@ -5056,7 +6671,7 @@
     <col min="9" max="9" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -5082,7 +6697,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>13.56</v>
       </c>
@@ -5108,7 +6723,7 @@
         <v>148.14814814814801</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>13.56</v>
       </c>
@@ -5134,7 +6749,7 @@
         <v>92.4444444444444</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>13.56</v>
       </c>
@@ -5160,7 +6775,7 @@
         <v>75.614814814814807</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>13.56</v>
       </c>
@@ -5186,7 +6801,7 @@
         <v>48.118518518518499</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>13.56</v>
       </c>
@@ -5212,7 +6827,7 @@
         <v>27.970370370370301</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="2">
         <v>13.56</v>
       </c>
@@ -5238,7 +6853,7 @@
         <v>4.9777777777777601</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>13.56</v>
       </c>
@@ -5264,7 +6879,7 @@
         <v>118.992592592592</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>13.56</v>
       </c>
@@ -5290,7 +6905,7 @@
         <v>90.311111111111103</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>13.56</v>
       </c>
@@ -5316,7 +6931,7 @@
         <v>79.170370370370307</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>13.56</v>
       </c>
@@ -5342,7 +6957,7 @@
         <v>57.362962962962897</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="5">
         <v>13.56</v>
       </c>
@@ -5368,7 +6983,7 @@
         <v>35.318518518518403</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="2">
         <v>13.56</v>
       </c>
@@ -5394,7 +7009,7 @@
         <v>36.977777777777703</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>13.56</v>
       </c>
@@ -5420,7 +7035,7 @@
         <v>125.86666666666601</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>13.56</v>
       </c>
@@ -5446,7 +7061,7 @@
         <v>93.629629629629605</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>13.56</v>
       </c>
@@ -5472,7 +7087,7 @@
         <v>97.896296296296299</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>13.56</v>
       </c>
@@ -5498,7 +7113,7 @@
         <v>51.911111111111097</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>13.56</v>
       </c>
@@ -5524,7 +7139,7 @@
         <v>57.599999999999902</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="2">
         <v>13.56</v>
       </c>
@@ -5550,7 +7165,7 @@
         <v>26.311111111111099</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>13.56</v>
       </c>
@@ -5576,7 +7191,7 @@
         <v>99.5555555555555</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>13.56</v>
       </c>
@@ -5602,7 +7217,7 @@
         <v>94.340740740740699</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>13.56</v>
       </c>
@@ -5628,7 +7243,7 @@
         <v>87.229629629629599</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>13.56</v>
       </c>
@@ -5654,7 +7269,7 @@
         <v>77.511111111111106</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>13.56</v>
       </c>
@@ -5680,7 +7295,7 @@
         <v>68.740740740740705</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="2">
         <v>13.56</v>
       </c>
@@ -5706,7 +7321,7 @@
         <v>60.681481481481399</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>13.56</v>
       </c>
@@ -5732,7 +7347,7 @@
         <v>-17.334986043112099</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>13.56</v>
       </c>
@@ -5758,7 +7373,7 @@
         <v>-4.0938908485839596</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>13.56</v>
       </c>
@@ -5784,7 +7399,7 @@
         <v>8.8974836132918291</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>13.56</v>
       </c>
@@ -5810,7 +7425,7 @@
         <v>14.870500296762</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="2">
         <v>13.56</v>
       </c>
@@ -5836,7 +7451,7 @@
         <v>22.7236147432425</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="10">
         <v>13.56</v>
       </c>
@@ -5862,7 +7477,7 @@
         <v>317.68388106416199</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="5">
         <v>13.56</v>
       </c>
@@ -5888,7 +7503,7 @@
         <v>76.134585289514902</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="5">
         <v>13.56</v>
       </c>
@@ -5914,7 +7529,7 @@
         <v>62.9890453834116</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" s="5">
         <v>13.56</v>
       </c>
@@ -5940,7 +7555,7 @@
         <v>44.913928012519499</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="5">
         <v>13.56</v>
       </c>
@@ -5966,7 +7581,7 @@
         <v>31.7683881064162</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="2">
         <v>13.56</v>
       </c>
@@ -5992,7 +7607,7 @@
         <v>26.8388106416275</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="5">
         <v>13.56</v>
       </c>
@@ -6018,7 +7633,7 @@
         <v>25.094339622641499</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="5">
         <v>13.56</v>
       </c>
@@ -6044,7 +7659,7 @@
         <v>35.951972555746103</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="5">
         <v>13.56</v>
       </c>
@@ -6070,7 +7685,7 @@
         <v>40.068610634648302</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="2">
         <v>13.56</v>
       </c>
@@ -6096,7 +7711,7 @@
         <v>44.030874785591699</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" s="5">
         <v>13.56</v>
       </c>
@@ -6122,7 +7737,7 @@
         <v>-8.3855421686747</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="5">
         <v>13.56</v>
       </c>
@@ -6148,7 +7763,7 @@
         <v>3.25301204819276</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" s="5">
         <v>13.56</v>
       </c>
@@ -6174,7 +7789,7 @@
         <v>16.626506024096301</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="2">
         <v>13.56</v>
       </c>
@@ -6200,9 +7815,73 @@
         <v>26.024096385542101</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:8" ht="9" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5075504A-7D04-48F1-A6DE-3AAAFBA79D76}">
+  <dimension ref="I20:J25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="U33" sqref="U33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="20" spans="9:10">
+      <c r="I20" s="10">
+        <v>39.669250334268199</v>
+      </c>
+      <c r="J20" s="10">
+        <v>317.68388106416199</v>
+      </c>
+    </row>
+    <row r="21" spans="9:10">
+      <c r="I21" s="5">
+        <v>45.796463290808298</v>
+      </c>
+      <c r="J21" s="5">
+        <v>76.134585289514902</v>
+      </c>
+    </row>
+    <row r="22" spans="9:10">
+      <c r="I22" s="5">
+        <v>50.0411175116365</v>
+      </c>
+      <c r="J22" s="5">
+        <v>62.9890453834116</v>
+      </c>
+    </row>
+    <row r="23" spans="9:10">
+      <c r="I23" s="5">
+        <v>59.812206572769902</v>
+      </c>
+      <c r="J23" s="5">
+        <v>44.913928012519499</v>
+      </c>
+    </row>
+    <row r="24" spans="9:10">
+      <c r="I24" s="5">
+        <v>90.009751585889305</v>
+      </c>
+      <c r="J24" s="5">
+        <v>31.7683881064162</v>
+      </c>
+    </row>
+    <row r="25" spans="9:10">
+      <c r="I25" s="2">
+        <v>120.20428064460999</v>
+      </c>
+      <c r="J25" s="2">
+        <v>26.8388106416275</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/database/Data Set.xlsx
+++ b/database/Data Set.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeonuKim\Desktop\ML project\Regression_Analysis_of_PECVD_SiNx\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A2AC28-3907-4BF8-B389-288E7DA8F856}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7089AD5C-BB7F-415D-A1E8-872FC67B3C7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1261,10 +1261,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.33742341589223046"/>
-          <c:y val="0.10744529040200125"/>
-          <c:w val="0.53467889959367154"/>
-          <c:h val="0.14130931529438706"/>
+          <c:x val="0.35511140259235008"/>
+          <c:y val="9.3157568942318622E-2"/>
+          <c:w val="0.61525750567199411"/>
+          <c:h val="0.19211010270659196"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3160,7 +3160,7 @@
   <dimension ref="A1:N89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+      <selection activeCell="AR23" sqref="AR23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5378,7 +5378,7 @@
       </c>
       <c r="I2">
         <f t="shared" ref="I2:I44" ca="1" si="0">RAND()</f>
-        <v>0.89505557558856685</v>
+        <v>0.68745375624880856</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -5408,7 +5408,7 @@
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99379963344186595</v>
+        <v>0.29177910730925727</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -5438,7 +5438,7 @@
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57398459937964075</v>
+        <v>0.57610106245439308</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -5468,7 +5468,7 @@
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9509420180148913E-2</v>
+        <v>0.55553486187378498</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -5498,7 +5498,7 @@
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9138743050539011</v>
+        <v>5.2562558834386652E-2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -5528,7 +5528,7 @@
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>5.2272306917480527E-2</v>
+        <v>7.8715711803591382E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -5558,7 +5558,7 @@
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36260495396551284</v>
+        <v>0.79633059169210152</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -5588,7 +5588,7 @@
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61985080757549416</v>
+        <v>0.21069512595934203</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -5618,7 +5618,7 @@
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99754079409676266</v>
+        <v>0.23242403794719546</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -5648,7 +5648,7 @@
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23636484101018918</v>
+        <v>0.96188244440890469</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -5678,7 +5678,7 @@
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6940650794354104</v>
+        <v>0.86781740088924686</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -5708,7 +5708,7 @@
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48563797079715765</v>
+        <v>0.18803145212815853</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -5738,7 +5738,7 @@
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0495436156319231E-2</v>
+        <v>0.58840278078330377</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -5768,7 +5768,7 @@
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48058795104553076</v>
+        <v>0.79564861549873644</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -5798,7 +5798,7 @@
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66406632377026198</v>
+        <v>0.84391309482881138</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -5828,7 +5828,7 @@
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78317755328033101</v>
+        <v>0.34354628033784673</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -5858,7 +5858,7 @@
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63079172229764213</v>
+        <v>0.96488527182118933</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -5888,7 +5888,7 @@
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90432510106041009</v>
+        <v>2.8767543727434397E-2</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -5918,7 +5918,7 @@
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22247853525180949</v>
+        <v>0.69632062435896014</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -5948,7 +5948,7 @@
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11916436812811804</v>
+        <v>7.0724647052271106E-2</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -5978,7 +5978,7 @@
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46732913011211008</v>
+        <v>0.77380697591029701</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -6008,7 +6008,7 @@
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13340637553044854</v>
+        <v>0.35567516101822205</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -6038,7 +6038,7 @@
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80401381828301055</v>
+        <v>0.43921273577836073</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -6068,7 +6068,7 @@
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49854326427040907</v>
+        <v>0.81532126477874711</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -6098,7 +6098,7 @@
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80200078186321011</v>
+        <v>0.69659573115348561</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -6128,7 +6128,7 @@
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13020736014403578</v>
+        <v>0.80279496748952572</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -6158,7 +6158,7 @@
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88631873433535158</v>
+        <v>0.39514164650342787</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -6188,7 +6188,7 @@
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3905406447929638</v>
+        <v>0.22362096766264772</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -6218,7 +6218,7 @@
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87115689378022121</v>
+        <v>0.34038230489870525</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -6248,7 +6248,7 @@
       </c>
       <c r="I31">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46555915408964421</v>
+        <v>0.69746924989700998</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -6278,7 +6278,7 @@
       </c>
       <c r="I32">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70409275237056279</v>
+        <v>0.84512036776629584</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -6308,7 +6308,7 @@
       </c>
       <c r="I33">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9302851015231739</v>
+        <v>0.84683768535110937</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -6338,7 +6338,7 @@
       </c>
       <c r="I34">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57270513476540053</v>
+        <v>0.71366761272033385</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -6368,7 +6368,7 @@
       </c>
       <c r="I35">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83612821865265519</v>
+        <v>0.83629775009033336</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -6398,7 +6398,7 @@
       </c>
       <c r="I36">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21092517883950157</v>
+        <v>0.30443561051205037</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -6428,7 +6428,7 @@
       </c>
       <c r="I37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67151552095999012</v>
+        <v>0.83778738003444242</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -6458,7 +6458,7 @@
       </c>
       <c r="I38">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36727615646691492</v>
+        <v>0.86372512048333261</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -6488,7 +6488,7 @@
       </c>
       <c r="I39">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67640773450588521</v>
+        <v>0.58586192494945266</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -6518,7 +6518,7 @@
       </c>
       <c r="I40">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64498914486587444</v>
+        <v>0.8423916084802</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -6548,7 +6548,7 @@
       </c>
       <c r="I41">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24427843649972802</v>
+        <v>0.24424071783481094</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -6578,7 +6578,7 @@
       </c>
       <c r="I42">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5246753955855934</v>
+        <v>0.8215627596959979</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -6608,7 +6608,7 @@
       </c>
       <c r="I43">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69566867126141707</v>
+        <v>0.99101189184913274</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -6638,7 +6638,7 @@
       </c>
       <c r="I44">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39010825028802976</v>
+        <v>0.22803387520666107</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="9" customHeight="1"/>
